--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:55:07+00:00</t>
+    <t>2023-02-21T16:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T16:28:41+00:00</t>
+    <t>2023-02-22T09:44:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -443,7 +443,7 @@
     <t>ror-healthcareservice-patient-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-patient-type}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-patient-type}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>ror-healthcareservice-psychiatric-sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-psychiatric-sector}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-psychiatric-sector}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>ror-healthcareservice-competence-ressource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-competence-ressource}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-competence-ressource}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>ror-healthcareservice-equipement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-equipement}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-equipement}
 </t>
   </si>
   <si>
@@ -502,7 +502,7 @@
     <t>ror-healthcareservice-intervention-zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-intervention-zone}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-intervention-zone}
 </t>
   </si>
   <si>
@@ -512,7 +512,7 @@
     <t>ror-healthcareservice-sensitive-unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-sensitive-unit}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-sensitive-unit}
 </t>
   </si>
   <si>
@@ -522,7 +522,7 @@
     <t>ror-healthcareservice-opening-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-opening-date}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-opening-date}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>ror-healthcareservice-reception-mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-reception-mode}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-reception-mode}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>ror-healthcareservice-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-contact}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-contact}
 </t>
   </si>
   <si>
@@ -1158,7 +1158,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
     <t>ror-healthcareservice-open-close</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-open-close}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-open-close}
 </t>
   </si>
   <si>
@@ -1931,7 +1931,7 @@
     <t>ror-healthcareservice-definitely-close</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-definitely-close}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-definitely-close}
 </t>
   </si>
   <si>
@@ -1941,7 +1941,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1951,7 +1951,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T09:44:01+00:00</t>
+    <t>2023-02-24T13:00:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T13:00:27+00:00</t>
+    <t>2023-02-24T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:20:30+00:00</t>
+    <t>2023-02-24T16:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:22:39+00:00</t>
+    <t>2023-02-24T16:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T16:23:59+00:00</t>
+    <t>2023-02-27T11:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -443,7 +443,7 @@
     <t>ror-healthcareservice-patient-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-patient-type}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-patient-type}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>ror-healthcareservice-psychiatric-sector</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-psychiatric-sector}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-psychiatric-sector}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>ror-healthcareservice-competence-ressource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-competence-ressource}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-competence-ressource}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>ror-healthcareservice-equipement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-equipement}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-equipement}
 </t>
   </si>
   <si>
@@ -502,7 +502,7 @@
     <t>ror-healthcareservice-intervention-zone</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-intervention-zone}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-intervention-zone}
 </t>
   </si>
   <si>
@@ -512,7 +512,7 @@
     <t>ror-healthcareservice-sensitive-unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-sensitive-unit}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-sensitive-unit}
 </t>
   </si>
   <si>
@@ -522,7 +522,7 @@
     <t>ror-healthcareservice-opening-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-opening-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-opening-date}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>ror-healthcareservice-reception-mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-reception-mode}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-reception-mode}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>ror-healthcareservice-contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-contact}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-contact}
 </t>
   </si>
   <si>
@@ -1158,7 +1158,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1168,7 +1168,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
     <t>ror-healthcareservice-open-close</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-open-close}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-open-close}
 </t>
   </si>
   <si>
@@ -1931,7 +1931,7 @@
     <t>ror-healthcareservice-definitely-close</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-definitely-close}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-healthcareservice-definitely-close}
 </t>
   </si>
   <si>
@@ -1941,7 +1941,7 @@
     <t>ror-available-time-effective-opening-closing-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-effective-opening-closing-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-effective-opening-closing-date}
 </t>
   </si>
   <si>
@@ -1951,7 +1951,7 @@
     <t>ror-available-time-number-days-of-week</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-number-days-of-week}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-number-days-of-week}
 </t>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
     <t>ror-available-time-type-of-time</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-type-of-time}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror24/StructureDefinition/ror-available-time-type-of-time}
 </t>
   </si>
   <si>
@@ -2389,7 +2389,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.25390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:21:32+00:00</t>
+    <t>2023-02-28T09:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:39:29+00:00</t>
+    <t>2023-02-28T09:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:39:18+00:00</t>
+    <t>2023-03-19T15:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:21:05+00:00</t>
+    <t>2023-03-19T15:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:22:13+00:00</t>
+    <t>2023-03-19T15:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:23:16+00:00</t>
+    <t>2023-03-19T15:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:07+00:00</t>
+    <t>2023-03-19T15:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
